--- a/docs/muu.xlsx
+++ b/docs/muu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanyakovenko/Documents/БО/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanyakovenko/Documents/Processor/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB300E2C-0700-BB4D-AF36-D164A8684E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A2C988-1834-D84A-B3C0-C27922F63E01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13920" xr2:uid="{234A66F5-051B-604A-ACD6-B3A41FDFB7EE}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="27320" windowHeight="13920" xr2:uid="{234A66F5-051B-604A-ACD6-B3A41FDFB7EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
   <si>
     <t>Переход</t>
   </si>
@@ -96,9 +96,6 @@
     <t>0/1</t>
   </si>
   <si>
-    <t>начальная уст</t>
-  </si>
-  <si>
     <t>SNO</t>
   </si>
   <si>
@@ -181,6 +178,15 @@
   </si>
   <si>
     <t>P1 * (not COP0 * (F1^F2) V COP0)</t>
+  </si>
+  <si>
+    <t>Начальная установка</t>
+  </si>
+  <si>
+    <t>0 (Умножение)</t>
+  </si>
+  <si>
+    <t>1 (Пересылка отрицательная)</t>
   </si>
 </sst>
 </file>
@@ -212,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -220,17 +226,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,503 +579,509 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0073376-C22B-BE43-BBE6-D110BAB35879}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1052,47 +1089,47 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1100,29 +1137,34 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
         <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B15:D15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
